--- a/ПКМ/resdata PKM Temp=-25, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-25, Volume=10x15x8.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8908361940871499</v>
+        <v>1.03136347076758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9559391314824264</v>
+        <v>1.079578361280278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9318963569423946</v>
+        <v>0.9553391469837171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5432319758983604</v>
+        <v>0.5052111625880162</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.91291737762469</v>
+        <v>53.54931536490455</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.49055136517804</v>
+        <v>34.84761531284607</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8490757272804754</v>
+        <v>0.8493076949942499</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.067203884733781</v>
+        <v>10.38511132996562</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.837237207750446</v>
+        <v>0.8366647347088132</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.735126329595986</v>
+        <v>3.460251547029595</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8044343933957511</v>
+        <v>0.8097875687561387</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.620035798116884</v>
+        <v>4.856337175063271</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4645416158149253</v>
+        <v>0.6048922696963329</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1499732605954165</v>
+        <v>0.2015914886540563</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1668718813188917</v>
+        <v>0.2233884546451682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8987329645359363</v>
+        <v>0.9024257273020919</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40033.96300832339</v>
+        <v>39814.87026691435</v>
       </c>
       <c r="C2" t="n">
-        <v>40438.34647305393</v>
+        <v>40217.04067365086</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89518.61200638753</v>
+        <v>87006.9119451279</v>
       </c>
       <c r="C3" t="n">
-        <v>90422.84041049246</v>
+        <v>87885.76964154333</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36862.0061841803</v>
+        <v>37612.82486841941</v>
       </c>
       <c r="C4" t="n">
-        <v>37234.34968099021</v>
+        <v>37992.75239234284</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>504.8766618784483</v>
+        <v>506.5996430146022</v>
       </c>
       <c r="C5" t="n">
-        <v>509.9764261398468</v>
+        <v>511.7168111258608</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31907.10804587569</v>
+        <v>32659.80196127448</v>
       </c>
       <c r="C6" t="n">
-        <v>32229.4020665411</v>
+        <v>32989.6989507823</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35594.56183380228</v>
+        <v>36975.18622287449</v>
       </c>
       <c r="C7" t="n">
-        <v>35954.10286242655</v>
+        <v>37348.67295239848</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.36534451136432</v>
+        <v>28.73022192039658</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.99676182282411</v>
+        <v>92.85630136234035</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.25184262227509</v>
+        <v>8.027425673726569</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.4861365691729</v>
+        <v>459.8658679699622</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>864.3401447928555</v>
+        <v>864.7694733254596</v>
       </c>
       <c r="E6" t="n">
         <v>515.469582375</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301.4076562447484</v>
+        <v>306.3175165284618</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.9217622107567</v>
+        <v>694.2729539447929</v>
       </c>
       <c r="E7" t="n">
         <v>515.469582375</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.6046630219584</v>
+        <v>238.2171538999854</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.6879176656822</v>
+        <v>620.5678243088342</v>
       </c>
       <c r="E8" t="n">
         <v>515.469582375</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.6830814126311</v>
+        <v>237.2931102336373</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.6985742716644</v>
+        <v>619.5751046050485</v>
       </c>
       <c r="E9" t="n">
         <v>515.469582375</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.1040785154757</v>
+        <v>177.3658064360517</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1742213931768</v>
+        <v>555.5757919806567</v>
       </c>
       <c r="E10" t="n">
         <v>515.469582375</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.0586328341108</v>
+        <v>108.7695334589243</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.4240283812636</v>
+        <v>483.1201627264215</v>
       </c>
       <c r="E11" t="n">
         <v>515.469582375</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.5359550738825</v>
+        <v>501.5345199436958</v>
       </c>
       <c r="C3" t="n">
-        <v>7.440161681289534</v>
+        <v>8.070396221028471</v>
       </c>
       <c r="D3" t="n">
-        <v>3412.383836789141</v>
+        <v>3402.450649455337</v>
       </c>
       <c r="E3" t="n">
-        <v>61.51724665671133</v>
+        <v>61.25988231899682</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.283721892761</v>
+        <v>298.45217768143</v>
       </c>
       <c r="C4" t="n">
-        <v>7.804323766092917</v>
+        <v>8.402198703560678</v>
       </c>
       <c r="D4" t="n">
-        <v>2761.557694364527</v>
+        <v>2752.561042267794</v>
       </c>
       <c r="E4" t="n">
-        <v>61.51724665671133</v>
+        <v>61.25988231899682</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.0180522426029</v>
+        <v>297.7541755634536</v>
       </c>
       <c r="C5" t="n">
-        <v>7.804323766092917</v>
+        <v>8.402198703560678</v>
       </c>
       <c r="D5" t="n">
-        <v>1306.386104771415</v>
+        <v>1332.389270537067</v>
       </c>
       <c r="E5" t="n">
-        <v>61.51724665671133</v>
+        <v>61.25988231899682</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.3590764718026</v>
+        <v>168.8778175743544</v>
       </c>
       <c r="C6" t="n">
-        <v>7.804323766092917</v>
+        <v>8.402198703560678</v>
       </c>
       <c r="D6" t="n">
-        <v>707.1709926418393</v>
+        <v>718.4217617979087</v>
       </c>
       <c r="E6" t="n">
-        <v>61.51724665671133</v>
+        <v>61.25988231899682</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.9570062276758</v>
+        <v>165.9970076799771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6829971811870159</v>
+        <v>0.7184284318911851</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6899122537924</v>
+        <v>701.5858908865513</v>
       </c>
       <c r="E7" t="n">
-        <v>61.51724665671133</v>
+        <v>61.25988231899682</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.1015927885172</v>
+        <v>177.844002486083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6759292599175489</v>
+        <v>0.7114082454071915</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.843317683969</v>
+        <v>2793.481577646936</v>
       </c>
       <c r="E8" t="n">
-        <v>16.75317223366207</v>
+        <v>17.09370910200916</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.9570060930226</v>
+        <v>165.9970075409914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6829971811870159</v>
+        <v>0.7184284318911851</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.711759789524</v>
+        <v>2763.846947733601</v>
       </c>
       <c r="E9" t="n">
-        <v>16.75317223366207</v>
+        <v>17.09370910200916</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.9570062276758</v>
+        <v>165.9970076799771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6829971811870159</v>
+        <v>0.7184284318911851</v>
       </c>
       <c r="D10" t="n">
-        <v>727.8494624408065</v>
+        <v>734.6766349160152</v>
       </c>
       <c r="E10" t="n">
-        <v>78.27041889037341</v>
+        <v>78.35359142100599</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.9570062276758</v>
+        <v>165.9970076799771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6829971811870159</v>
+        <v>0.7184284318911851</v>
       </c>
       <c r="D11" t="n">
-        <v>727.8494624408065</v>
+        <v>734.6766349160152</v>
       </c>
       <c r="E11" t="n">
-        <v>78.26679557431072</v>
+        <v>78.35883371575584</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.09399786172571</v>
+        <v>62.64165912998885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6829971811870159</v>
+        <v>0.7184284318911851</v>
       </c>
       <c r="D12" t="n">
-        <v>273.0658493329539</v>
+        <v>262.8017109518491</v>
       </c>
       <c r="E12" t="n">
-        <v>78.27041889037341</v>
+        <v>78.35359142100599</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.09429276179111</v>
+        <v>62.64349448548199</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>273.0670838038267</v>
+        <v>262.8093916353505</v>
       </c>
       <c r="E13" t="n">
-        <v>72.23252514263444</v>
+        <v>78.35366479655494</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.09429276179111</v>
+        <v>62.64349448548199</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>273.0670838038267</v>
+        <v>262.8093916353505</v>
       </c>
       <c r="E14" t="n">
-        <v>72.23252514263444</v>
+        <v>78.35366479655494</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112.5394308124024</v>
+        <v>111.097389744232</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1560460393627115</v>
+        <v>0.1487447985062752</v>
       </c>
       <c r="D15" t="n">
-        <v>472.1664583642989</v>
+        <v>466.0600525392812</v>
       </c>
       <c r="E15" t="n">
-        <v>55.74468477778072</v>
+        <v>56.18907941943808</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.03129447534275</v>
+        <v>76.82352641527831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1560462414455348</v>
+        <v>0.1487544191890394</v>
       </c>
       <c r="D16" t="n">
-        <v>322.643492420803</v>
+        <v>321.7661750365904</v>
       </c>
       <c r="E16" t="n">
-        <v>55.74518452097955</v>
+        <v>56.19122511017066</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.23095664538981</v>
+        <v>93.51486046987979</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5450154742472</v>
+        <v>391.5467207873867</v>
       </c>
       <c r="E19" t="n">
         <v>74.84819605357399</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.1958301123316</v>
+        <v>124.5361023255576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2265578656963521</v>
+        <v>0.2289560573689572</v>
       </c>
       <c r="D20" t="n">
-        <v>2706.965873317519</v>
+        <v>2692.306515445257</v>
       </c>
       <c r="E20" t="n">
-        <v>11.68688712265555</v>
+        <v>13.33513188792513</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.5458056532826</v>
+        <v>122.8835232792616</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2152299724115345</v>
+        <v>0.2175082545005093</v>
       </c>
       <c r="D21" t="n">
-        <v>514.6318631069914</v>
+        <v>516.0681080473844</v>
       </c>
       <c r="E21" t="n">
-        <v>11.68688712265555</v>
+        <v>13.33513188792513</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.8040723264594</v>
+        <v>108.4515164139051</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>459.7496508308857</v>
+        <v>454.0864992250206</v>
       </c>
       <c r="E22" t="n">
         <v>594.1704625296355</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.21693466700054</v>
+        <v>71.12672737748031</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.0967893244454</v>
+        <v>112.6414405215882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1642589888028542</v>
+        <v>0.1565734721118686</v>
       </c>
       <c r="D25" t="n">
-        <v>2661.790684449226</v>
+        <v>2639.087888451863</v>
       </c>
       <c r="E25" t="n">
-        <v>44.05785215095168</v>
+        <v>42.85610700233241</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.6596346192357</v>
+        <v>498.9222966881957</v>
       </c>
       <c r="C26" t="n">
-        <v>6.846287913941653</v>
+        <v>7.531189801894177</v>
       </c>
       <c r="D26" t="n">
-        <v>3412.383836789141</v>
+        <v>3402.450649455337</v>
       </c>
       <c r="E26" t="n">
-        <v>55.47888450100702</v>
+        <v>61.25988231899682</v>
       </c>
       <c r="F26" t="n">
-        <v>6.810919328568592</v>
+        <v>6.756564482202244</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.8443953188183</v>
+        <v>190.5435522998011</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4997521489587899</v>
+        <v>0.5328034642582579</v>
       </c>
       <c r="D27" t="n">
-        <v>2844.770561064276</v>
+        <v>2833.601771630449</v>
       </c>
       <c r="E27" t="n">
-        <v>55.47888450100702</v>
+        <v>61.25988231899682</v>
       </c>
       <c r="F27" t="n">
-        <v>7.037723521076589</v>
+        <v>6.985069541065341</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.1930617548472</v>
+        <v>175.003892965404</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5796275554317624</v>
+        <v>0.615959081659601</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.843317683969</v>
+        <v>2793.481577646936</v>
       </c>
       <c r="E28" t="n">
-        <v>16.75317223366207</v>
+        <v>17.09370910200916</v>
       </c>
       <c r="F28" t="n">
-        <v>6.855786519252369</v>
+        <v>6.83256974947265</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.1695235174602</v>
+        <v>186.5516105884141</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4997521489587899</v>
+        <v>0.5328034642582579</v>
       </c>
       <c r="D29" t="n">
-        <v>2832.494858775189</v>
+        <v>2824.849104233425</v>
       </c>
       <c r="E29" t="n">
-        <v>72.23205673466909</v>
+        <v>78.35359142100599</v>
       </c>
       <c r="F29" t="n">
-        <v>7.011332544401773</v>
+        <v>6.966111760917483</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.1958716540216</v>
+        <v>124.53633372233</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2265489480642805</v>
+        <v>0.2289436944446411</v>
       </c>
       <c r="D30" t="n">
-        <v>2706.966052111959</v>
+        <v>2692.307492015999</v>
       </c>
       <c r="E30" t="n">
-        <v>72.23205673466909</v>
+        <v>78.35359142100599</v>
       </c>
       <c r="F30" t="n">
-        <v>7.072748513089516</v>
+        <v>7.031175659203517</v>
       </c>
       <c r="G30" t="n">
-        <v>99.77216528076923</v>
+        <v>99.08043028189421</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.096884346631</v>
+        <v>112.6418504195037</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1642595005170195</v>
+        <v>0.156575594403191</v>
       </c>
       <c r="D31" t="n">
-        <v>2661.791120977435</v>
+        <v>2639.089734325596</v>
       </c>
       <c r="E31" t="n">
-        <v>60.54522410784004</v>
+        <v>65.02061900390032</v>
       </c>
       <c r="F31" t="n">
-        <v>7.101108851962825</v>
+        <v>7.063577621598379</v>
       </c>
       <c r="G31" t="n">
-        <v>98.4024809228855</v>
+        <v>97.48193375669723</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.2087021643469</v>
+        <v>77.55718327467639</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03177958120034167</v>
+        <v>0.04197250009689728</v>
       </c>
       <c r="D32" t="n">
-        <v>2661.791120977435</v>
+        <v>2639.089734325596</v>
       </c>
       <c r="E32" t="n">
-        <v>16.4873406216549</v>
+        <v>22.16243968638427</v>
       </c>
       <c r="F32" t="n">
-        <v>7.846933603461114</v>
+        <v>7.65565778028827</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.97219977785153</v>
+        <v>24.85736352518751</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002806344885969807</v>
+        <v>0.003143074551892836</v>
       </c>
       <c r="D33" t="n">
-        <v>2502.879149772348</v>
+        <v>2419.965069181134</v>
       </c>
       <c r="E33" t="n">
-        <v>16.4873406216549</v>
+        <v>22.16243968638427</v>
       </c>
       <c r="F33" t="n">
-        <v>8.465500600283063</v>
+        <v>8.135945809676159</v>
       </c>
       <c r="G33" t="n">
-        <v>98.36701567682958</v>
+        <v>94.82877901782717</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.97219977785153</v>
+        <v>24.85736352518751</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002806344885969807</v>
+        <v>0.003143074551892836</v>
       </c>
       <c r="D34" t="n">
-        <v>96.34851082733236</v>
+        <v>104.2327445578251</v>
       </c>
       <c r="E34" t="n">
-        <v>16.4873406216549</v>
+        <v>22.16243968638427</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.99371668592727</v>
+        <v>26.8801884325332</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>105.444778323525</v>
+        <v>113.3288319699843</v>
       </c>
       <c r="E35" t="n">
-        <v>16.4873406216549</v>
+        <v>22.16243968638427</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
